--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,30 +43,24 @@
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
@@ -76,235 +70,220 @@
     <t>best</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>pie</t>
+    <t>sturdy</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>gift</t>
+    <t>popcorn</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>popcorn</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>cook</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>new</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>new</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>fast</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>wish</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>cup</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>coffee</t>
+    <t>job</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>one</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>product</t>
@@ -668,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -737,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3720930232558139</v>
+        <v>0.4263565891472868</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -755,119 +734,71 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>0.9247311827956989</v>
+      </c>
+      <c r="L3">
+        <v>86</v>
+      </c>
+      <c r="M3">
+        <v>86</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>0.890625</v>
+      </c>
+      <c r="L4">
+        <v>114</v>
+      </c>
+      <c r="M4">
+        <v>114</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3">
-        <v>0.946236559139785</v>
-      </c>
-      <c r="L3">
-        <v>88</v>
-      </c>
-      <c r="M3">
-        <v>88</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>0.3265306122448979</v>
-      </c>
-      <c r="C4">
-        <v>32</v>
-      </c>
-      <c r="D4">
-        <v>33</v>
-      </c>
-      <c r="E4">
-        <v>0.03</v>
-      </c>
-      <c r="F4">
-        <v>0.97</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>66</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4">
-        <v>0.8840579710144928</v>
-      </c>
-      <c r="L4">
-        <v>61</v>
-      </c>
-      <c r="M4">
-        <v>61</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="C5">
-        <v>35</v>
-      </c>
-      <c r="D5">
-        <v>35</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>150</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -879,21 +810,21 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8544891640866873</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L6">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="M6">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -905,21 +836,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8260869565217391</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -931,12 +862,12 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K8">
         <v>0.7954545454545454</v>
@@ -962,42 +893,42 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>0.7662337662337663</v>
+      </c>
+      <c r="L9">
+        <v>59</v>
+      </c>
+      <c r="M9">
+        <v>59</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>18</v>
-      </c>
-      <c r="K9">
-        <v>0.7402597402597403</v>
-      </c>
-      <c r="L9">
-        <v>57</v>
-      </c>
-      <c r="M9">
-        <v>57</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7316017316017316</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L10">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M10">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,21 +940,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K11">
-        <v>0.7288135593220338</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L11">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,21 +966,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K12">
-        <v>0.7111111111111111</v>
+        <v>0.703125</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1061,21 +992,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K13">
-        <v>0.7</v>
+        <v>0.6983050847457627</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1087,21 +1018,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6986301369863014</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>854</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>854</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1113,21 +1044,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6749598715890851</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L15">
-        <v>841</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>841</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1139,21 +1070,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>405</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K16">
-        <v>0.65625</v>
+        <v>0.68</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1165,21 +1096,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6514285714285715</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L17">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1191,21 +1122,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6461538461538462</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1217,21 +1148,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K19">
-        <v>0.6458333333333334</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1243,21 +1174,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K20">
-        <v>0.6326530612244898</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1269,21 +1200,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21">
-        <v>0.6324786324786325</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L21">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="M21">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1295,21 +1226,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K22">
-        <v>0.631578947368421</v>
+        <v>0.618421052631579</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1321,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K23">
-        <v>0.6078431372549019</v>
+        <v>0.6068376068376068</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1347,21 +1278,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K24">
-        <v>0.6056338028169014</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1373,21 +1304,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K25">
-        <v>0.6052631578947368</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="L25">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M25">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1399,21 +1330,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5882352941176471</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1425,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5802469135802469</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1451,21 +1382,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K28">
-        <v>0.5769230769230769</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L28">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1477,21 +1408,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="L29">
         <v>38</v>
       </c>
-      <c r="K29">
-        <v>0.5737704918032787</v>
-      </c>
-      <c r="L29">
-        <v>35</v>
-      </c>
       <c r="M29">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1503,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K30">
-        <v>0.5692307692307692</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1529,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>0.5662650602409639</v>
+        <v>0.5488721804511278</v>
       </c>
       <c r="L31">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1555,21 +1486,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K32">
-        <v>0.5555555555555556</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1581,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K33">
-        <v>0.5535714285714286</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1607,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34">
+        <v>0.5180722891566265</v>
+      </c>
+      <c r="L34">
         <v>43</v>
       </c>
-      <c r="K34">
-        <v>0.5449101796407185</v>
-      </c>
-      <c r="L34">
-        <v>91</v>
-      </c>
       <c r="M34">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1633,21 +1564,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K35">
-        <v>0.5416666666666666</v>
+        <v>0.49</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1659,21 +1590,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K36">
-        <v>0.492063492063492</v>
+        <v>0.4759036144578313</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1685,21 +1616,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K37">
-        <v>0.4887218045112782</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="L37">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1711,47 +1642,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>0.4545454545454545</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L38">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N38">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>0.446078431372549</v>
+        <v>0.4362745098039216</v>
       </c>
       <c r="L39">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M39">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1763,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>0.4457831325301205</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L40">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1789,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>92</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K41">
-        <v>0.4202334630350195</v>
+        <v>0.4046692607003891</v>
       </c>
       <c r="L41">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M41">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1815,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>0.4078947368421053</v>
+        <v>0.3956834532374101</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1841,21 +1772,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>0.4054054054054054</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="L43">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M43">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1867,21 +1798,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K44">
-        <v>0.3984962406015037</v>
+        <v>0.3873873873873874</v>
       </c>
       <c r="L44">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M44">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1893,21 +1824,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K45">
-        <v>0.3840877914951989</v>
+        <v>0.3689986282578875</v>
       </c>
       <c r="L45">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="M45">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1919,21 +1850,21 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K46">
-        <v>0.3796296296296297</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L46">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="M46">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1945,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K47">
-        <v>0.3762376237623762</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="L47">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M47">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1971,21 +1902,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K48">
-        <v>0.3636363636363636</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="L48">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="M48">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1997,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K49">
-        <v>0.3453237410071943</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L49">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M49">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2023,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K50">
-        <v>0.3238095238095238</v>
+        <v>0.3272335844994618</v>
       </c>
       <c r="L50">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="M50">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2049,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>71</v>
+        <v>625</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K51">
-        <v>0.3207750269106566</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L51">
-        <v>298</v>
+        <v>33</v>
       </c>
       <c r="M51">
-        <v>298</v>
+        <v>33</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2075,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>631</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K52">
-        <v>0.3178807947019868</v>
+        <v>0.3112582781456953</v>
       </c>
       <c r="L52">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M52">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2101,21 +2032,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K53">
-        <v>0.3063063063063063</v>
+        <v>0.2953020134228188</v>
       </c>
       <c r="L53">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M53">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2127,21 +2058,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K54">
-        <v>0.2821192052980133</v>
+        <v>0.2887417218543046</v>
       </c>
       <c r="L54">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M54">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2153,21 +2084,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K55">
-        <v>0.2751677852348993</v>
+        <v>0.2821316614420062</v>
       </c>
       <c r="L55">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="M55">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2179,21 +2110,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>108</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K56">
-        <v>0.2635658914728682</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="L56">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M56">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2205,21 +2136,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K57">
-        <v>0.2586427656850192</v>
+        <v>0.2714468629961588</v>
       </c>
       <c r="L57">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M57">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2231,15 +2162,15 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K58">
-        <v>0.2564102564102564</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="L58">
         <v>30</v>
@@ -2257,21 +2188,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K59">
-        <v>0.2538461538461538</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L59">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2283,125 +2214,125 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K60">
-        <v>0.2507836990595611</v>
+        <v>0.2303523035230352</v>
       </c>
       <c r="L60">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M60">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>239</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K61">
-        <v>0.2429378531073446</v>
+        <v>0.2241758241758242</v>
       </c>
       <c r="L61">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="M61">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>134</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K62">
-        <v>0.2183098591549296</v>
+        <v>0.2066420664206642</v>
       </c>
       <c r="L62">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M62">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N62">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>111</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K63">
-        <v>0.2079207920792079</v>
+        <v>0.2043795620437956</v>
       </c>
       <c r="L63">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="M63">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="N63">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>160</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K64">
-        <v>0.2068126520681265</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L64">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="M64">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2413,47 +2344,47 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>326</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K65">
-        <v>0.2059620596205962</v>
+        <v>0.1974789915966386</v>
       </c>
       <c r="L65">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="M65">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="N65">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>293</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K66">
-        <v>0.2</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="L66">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="M66">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2465,21 +2396,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>132</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K67">
-        <v>0.1958762886597938</v>
+        <v>0.1925925925925926</v>
       </c>
       <c r="L67">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M67">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2491,21 +2422,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K68">
-        <v>0.1951219512195122</v>
+        <v>0.187192118226601</v>
       </c>
       <c r="L68">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M68">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2517,21 +2448,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>132</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K69">
-        <v>0.1901840490797546</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="L69">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M69">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2543,73 +2474,73 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K70">
-        <v>0.189873417721519</v>
+        <v>0.1807909604519774</v>
       </c>
       <c r="L70">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M70">
         <v>32</v>
       </c>
       <c r="N70">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K71">
-        <v>0.1895910780669145</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="L71">
         <v>51</v>
       </c>
       <c r="M71">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N71">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>218</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K72">
-        <v>0.1861575178997613</v>
+        <v>0.1670644391408115</v>
       </c>
       <c r="L72">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M72">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2621,47 +2552,47 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K73">
-        <v>0.1846153846153846</v>
+        <v>0.1653225806451613</v>
       </c>
       <c r="L73">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="M73">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="N73">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>371</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K74">
-        <v>0.1734317343173432</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="L74">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M74">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2673,371 +2604,241 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>224</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K75">
-        <v>0.1722689075630252</v>
+        <v>0.1305595408895265</v>
       </c>
       <c r="L75">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="M75">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>197</v>
+        <v>606</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K76">
-        <v>0.1704545454545454</v>
+        <v>0.1224299065420561</v>
       </c>
       <c r="L76">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="M76">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>365</v>
+        <v>939</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K77">
-        <v>0.1475409836065574</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L77">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M77">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>312</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K78">
-        <v>0.1449275362318841</v>
+        <v>0.1139705882352941</v>
       </c>
       <c r="L78">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M78">
         <v>31</v>
       </c>
       <c r="N78">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>177</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K79">
-        <v>0.1330645161290323</v>
+        <v>0.09057301293900184</v>
       </c>
       <c r="L79">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M79">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>215</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K80">
-        <v>0.1323741007194245</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L80">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="M80">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="N80">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="O80">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>603</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K81">
-        <v>0.1297709923664122</v>
+        <v>0.08670520231213873</v>
       </c>
       <c r="L81">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M81">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N81">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O81">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>342</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K82">
-        <v>0.1274601686972821</v>
+        <v>0.06462882096069869</v>
       </c>
       <c r="L82">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="M82">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="N82">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="O82">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>931</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K83">
-        <v>0.08892763731473409</v>
+        <v>0.04780876494023904</v>
       </c>
       <c r="L83">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="M83">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="N83">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="O83">
-        <v>0.08999999999999997</v>
+        <v>0.28</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K84">
-        <v>0.08759124087591241</v>
-      </c>
-      <c r="L84">
-        <v>36</v>
-      </c>
-      <c r="M84">
-        <v>39</v>
-      </c>
-      <c r="N84">
-        <v>0.92</v>
-      </c>
-      <c r="O84">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K85">
-        <v>0.08516483516483517</v>
-      </c>
-      <c r="L85">
-        <v>31</v>
-      </c>
-      <c r="M85">
-        <v>32</v>
-      </c>
-      <c r="N85">
-        <v>0.97</v>
-      </c>
-      <c r="O85">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K86">
-        <v>0.0851063829787234</v>
-      </c>
-      <c r="L86">
-        <v>44</v>
-      </c>
-      <c r="M86">
-        <v>49</v>
-      </c>
-      <c r="N86">
-        <v>0.9</v>
-      </c>
-      <c r="O86">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K87">
-        <v>0.08502772643253234</v>
-      </c>
-      <c r="L87">
-        <v>46</v>
-      </c>
-      <c r="M87">
-        <v>47</v>
-      </c>
-      <c r="N87">
-        <v>0.98</v>
-      </c>
-      <c r="O87">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K88">
-        <v>0.03952569169960474</v>
-      </c>
-      <c r="L88">
-        <v>30</v>
-      </c>
-      <c r="M88">
-        <v>38</v>
-      </c>
-      <c r="N88">
-        <v>0.79</v>
-      </c>
-      <c r="O88">
-        <v>0.21</v>
-      </c>
-      <c r="P88" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>729</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
